--- a/Excel/directories_preferences.xlsx
+++ b/Excel/directories_preferences.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -52,12 +52,6 @@
     <t>Location: Sets the location of Audacity's temporary directory for session data.</t>
   </si>
   <si>
-    <t>This is used whenever there is audio data that has never been saved as an Audacity project. To change the location of the temporary directory, press Choose..., select the directory you require and click</t>
-  </si>
-  <si>
-    <t>OK. Audacity will then create a session workfile sub-directory in the directory you selected. Alternatively type the path required for the temporary directory into "Location" and Audacity will use that exact path, creating the new directory if needed.Exit and restart Audacity for changes to the temporary directory to take effect. Make sure the temporary directory is located on a fast (local) disk drive with plenty of free space. Avoid using network drives as these may be too slow for reliable recording. A RAM drive will always be quicker than a hard or solid state drive for recording and editing, but unless the RAM contents are saved to a physical drive the data will be lost when the computer powers down.</t>
-  </si>
-  <si>
     <t>Default location of Temporary Folder:</t>
   </si>
   <si>
@@ -73,55 +67,61 @@
     <t>If your drive does not have sufficient space, you can reduce the space taken by temporary data by going to the Quality tab of Preferences and reducing the default sample format and sample rate. Reducing the sample rate will noticeably reduce higher frequencies, so is only recommended for speech data.</t>
   </si>
   <si>
-    <t>डिरेक्टरीज प्राधान्ये - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>निर्देशिका प्राधान्ये</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
     <t>याद्वारे प्रवेशः संपादित करा&gt; प्राधान्ये&gt; निर्देशिका</t>
   </si>
   <si>
-    <t>(मॅक ऑडॅसिटी वर&gt; प्राधान्ये&gt; निर्देशिका)</t>
-  </si>
-  <si>
     <t>इतर प्राधान्यांसाठी डाव्या स्तंभात क्लिक करा</t>
   </si>
   <si>
     <t>विंडोजवरील डीफॉल्ट तात्पुरते सत्र डेटा स्थान दर्शविणारी निर्देशिका प्राधान्ये संवाद.</t>
   </si>
   <si>
-    <t>तात्पुरती फायली निर्देशिका</t>
-  </si>
-  <si>
-    <t>स्थानः सत्र डेटासाठी ऑडॅसिटीच्या तात्पुरत्या निर्देशिकेचे स्थान सेट करते.</t>
-  </si>
-  <si>
-    <t>ऑडिसी डेटा आहे जो ऑडॅसिटी प्रोजेक्ट म्हणून कधीही जतन केलेला नाही असा वापर केला जातो. तात्पुरती निर्देशिकेचे स्थान बदलण्यासाठी, निवडा ... दाबा, आपल्याला आवश्यक असलेली निर्देशिका निवडा आणि क्लिक करा</t>
-  </si>
-  <si>
-    <t>ठीक आहे. ऑडॅसिटी नंतर आपण निवडलेल्या निर्देशिकेत एक सत्र वर्कफाइल उप निर्देशिका तयार करेल. तात्पुरत्या डिरेक्टरीसाठी आवश्यक असलेला पथ "स्थान" मध्ये टाइप करा आणि ऑडॅसिटी त्या अचूक पाथचा उपयोग करेल, आवश्यक असल्यास नवीन निर्देशिका तयार करेल. तात्पुरती निर्देशिकेत होणारी बदलांची अंमलबजावणी करण्यासाठी ऑक्सिटी बाहेर पडा आणि रीस्टार्ट करा. अस्थायी निर्देशिका बर्‍याच मोकळ्या जागेसह जलद (स्थानिक) डिस्क ड्राइव्हवर आहे हे सुनिश्चित करा. नेटवर्क ड्राइव्ह वापरणे टाळा कारण विश्वसनीय रेकॉर्डिंगसाठी हे खूप धीमे असू शकतात. रेकॉर्डिंग आणि संपादनासाठी रॅम ड्राइव्ह हार्ड किंवा सॉलिड स्टेट ड्राईव्हपेक्षा नेहमीच वेगवान असेल, परंतु जोपर्यंत रॅम सामग्री भौतिक ड्राइव्हवर जतन केली जात नाही तोपर्यंत संगणक गमावल्यानंतर डेटा गमावला जाईल.</t>
-  </si>
-  <si>
     <t>तात्पुरते फोल्डरचे डीफॉल्ट स्थान:</t>
   </si>
   <si>
-    <t>विंडोजः सी: \ वापरकर्ते \ &lt;आपले वापरकर्तानाव&gt; \ अ‍ॅपडेटा \ स्थानिक \ ऑडसिटी \ सत्रडेटा</t>
-  </si>
-  <si>
     <t>मॅकओएस / मॅक ओएस एक्स: / वापरकर्ते / &lt;आपले वापरकर्तानाव&gt; / लायब्ररी / अनुप्रयोग समर्थन / सत्र डेटा</t>
   </si>
   <si>
-    <t>GNU / Linux: / var / tmp / audacity- &lt;आपले वापरकर्तानाव&gt;</t>
-  </si>
-  <si>
-    <t>आपल्या ड्राइव्हमध्ये पुरेशी जागा नसल्यास आपण प्राधान्यांच्या गुणवत्तेच्या टॅबवर जाऊन डीफॉल्ट नमुना स्वरूप आणि नमुना दर कमी करून तात्पुरत्या डेटाद्वारे घेतलेली जागा कमी करू शकता. नमुना दर कमी केल्याने उच्च फ्रिक्वेन्सी कमी होईल, म्हणून केवळ भाषण डेटासाठी सूचविले जाते.</t>
+    <t>निर्देशिका प्राधान्ये - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>(मॅक वर ओड्यासिटी &gt; प्राधान्ये&gt; निर्देशिका)</t>
+  </si>
+  <si>
+    <t>तात्पुरती धारिका निर्देशिका</t>
+  </si>
+  <si>
+    <t>स्थानः सत्र डेटासाठी ओड्यासिटीच्या तात्पुरत्या निर्देशिकेचे स्थान सेट करते.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Audacity will then create a session workfile sub-directory in the directory you selected. Alternatively type the path required for the temporary directory into "Location" and Audacity will use that exact path, creating the new directory if needed.Exit and restart Audacity for changes to the temporary directory to take effect. Make sure the temporary directory is located on a fast (local) disk drive with plenty of free space. Avoid using network drives as these may be too slow for reliable recording. A RAM drive will always be quicker than a hard or solid state drive for recording and editing, but unless the RAM contents are saved to a physical drive the data will be lost when the computer powers down.</t>
+  </si>
+  <si>
+    <t>This is used whenever there is audio data that has never been saved as an Audacity project. To change the location of the temporary directory, press Choose..., select the directory you require and click OK.</t>
+  </si>
+  <si>
+    <t>ध्वनी डेटा आहे जो ओड्यासिटी प्रोजेक्ट म्हणून कधीही जतन केलेला नाही असा वापर केला जातो. तात्पुरती निर्देशिकेचे स्थान बदलण्यासाठी, निवडा ... दाबा, आपल्याला आवश्यक असलेली निर्देशिका निवडा आणि ओके क्लिक करा.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी नंतर आपण निवडलेल्या निर्देशिकेत एक सत्र वर्कफाइल उप निर्देशिका तयार करेल. तात्पुरत्या निर्देशिकेसाठी आवश्यक असलेला पथ "स्थान" मध्ये टाइप करा आणि ओड्यासिटी त्या अचूक पाथचा उपयोग करेल, आवश्यक असल्यास नवीन निर्देशिका तयार करेल. तात्पुरती निर्देशिकेत होणारी बदलांची अंमलबजावणी करण्यासाठी ओड्यासिटी बाहेर पडा आणि परत चालु करा. अस्थायी निर्देशिका बर्‍याच मोकळ्या जागेसह जलद (स्थानिक) डिस्क ड्राइव्हवर आहे हे सुनिश्चित करा. नेटवर्क ड्राइव्ह वापरणे टाळा कारण विश्वसनीय ध्वनिमुद्रणासाठी हे खूप धीमे असू शकतात. ध्वनिमुद्रण आणि संपादनासाठी रॅम ड्राइव्ह हार्ड किंवा सॉलिड स्टेट ड्राईव्हपेक्षा नेहमीच वेगवान असेल, परंतु जोपर्यंत रॅम सामग्री भौतिक ड्राइव्हवर जतन केली जात नाही तोपर्यंत संगणक गमावल्यानंतर डेटा गमावला जाईल.</t>
+  </si>
+  <si>
+    <t>विंडोजः सी: \ वापरकर्ते \ &lt;आपले वापरकर्तानाव&gt; \ अ‍ॅपडेटा \ स्थानिक \ ओड्यासिटी \ सत्रडेटा</t>
+  </si>
+  <si>
+    <t>जिएनयु / लायनक्स् : / var / tmp / ओड्यासिटी - &lt;आपले वापरकर्तानाव&gt;</t>
+  </si>
+  <si>
+    <t>आपल्या ड्राइव्हमध्ये पुरेशी जागा नसल्यास आपण प्राधान्यांच्या गुणवत्तेच्या टॅबवर जाऊन डीफॉल्ट नमुना स्वरूप आणि नमुना दर कमी करून तात्पुरत्या डेटाद्वारे घेतलेली जागा कमी करू शकता. नमुना दर कमी केल्याने उच्च वारंवारता कमी होईल, म्हणून केवळ भाषण डेटासाठी सूचविले जाते.</t>
   </si>
 </sst>
 </file>
@@ -180,11 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,9 +482,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -501,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -512,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -523,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -534,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -545,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -556,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -578,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -608,10 +615,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -619,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -630,10 +637,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -641,10 +648,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -652,10 +659,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -663,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -674,13 +681,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>